--- a/phrenology_folds.xlsx
+++ b/phrenology_folds.xlsx
@@ -625,7 +625,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -663,7 +664,8 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -703,7 +705,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -779,7 +782,8 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -857,7 +861,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1206,8 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1365,8 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1522,8 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Hepatitis</t>
+          <t xml:space="preserve">Hepatitis B viral capsid (hbcag)
+</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1561,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1908,8 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t xml:space="preserve">RNA bacteriophage capsid protein
+</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1987,8 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2026,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2334,8 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2455,8 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2532,8 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2571,8 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2726,8 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2765,8 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2804,8 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2843,8 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3040,8 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3081,8 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3122,8 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3203,8 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3364,8 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3445,8 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3846,8 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4117,8 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Reovirus</t>
+          <t xml:space="preserve">Reovirus inner layer core protein p3
+</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4194,8 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">A virus capsid protein alpha-helical domain
+</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4895,8 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -4984,7 +5014,8 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5024,7 +5055,8 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5062,7 +5094,8 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t xml:space="preserve">Phage major capsid protein-like
+</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5285,8 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5324,8 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5328,7 +5363,8 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5441,8 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>L-A</t>
+          <t xml:space="preserve">L-A virus major coat protein
+</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5520,8 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Nucleoplasmin-like/VP</t>
+          <t xml:space="preserve">Nucleoplasmin-like/VP (viral coat and capsid proteins)
+</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5713,8 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t xml:space="preserve">Phage major capsid protein-like
+</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5752,8 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Phage</t>
+          <t xml:space="preserve">Phage major capsid protein-like
+</t>
         </is>
       </c>
     </row>
